--- a/MainTop/25.03.2024/Татуля_новые2.xlsx
+++ b/MainTop/25.03.2024/Татуля_новые2.xlsx
@@ -78,37 +78,37 @@
     <t xml:space="preserve">Термонаклейка Девушка на закате держат руки море</t>
   </si>
   <si>
+    <t xml:space="preserve">Термонаклейка Девушка макияж Хэллоуин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка силует обнимают природа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Лев Краски Дизайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Губы Язык Краски Дизайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро Поп арт жвачка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon радуется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Тигр Краски Дизайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Морская Черепаха Море силует</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термонаклейка Леопардовое сердце розовое</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Сердце отпечаток пальца красный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Девушка макияж Хэллоуин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Девушка силует обнимают природа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Лев Краски Дизайн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Губы Язык Краски Дизайн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мэрилин Монро Поп арт жвачка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon радуется</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Тигр Краски Дизайн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Морская Черепаха Море силует</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,7 +336,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,7 +344,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,7 +352,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,7 +360,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,7 +368,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,7 +376,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,7 +384,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,7 +392,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,7 +400,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,7 +408,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,7 +416,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,7 +424,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,7 +432,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,7 +440,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,7 +448,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,7 +456,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +464,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
